--- a/Data/aearep-1984/candidatepackages.xlsx
+++ b/Data/aearep-1984/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,15 +25,9 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>ivreg2</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
@@ -43,9 +37,6 @@
     <t>diff</t>
   </si>
   <si>
-    <t>fs</t>
-  </si>
-  <si>
     <t>tabout</t>
   </si>
   <si>
@@ -61,42 +52,18 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>txttool</t>
+    <t>title</t>
   </si>
   <si>
     <t>sq</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>bys</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -112,34 +79,16 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1984</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1984/135621</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1984/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>analysis.do</t>
   </si>
   <si>
     <t>replication-config.do</t>
-  </si>
-  <si>
-    <t>scan_packages.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -183,7 +132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -191,13 +140,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -205,7 +154,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -229,7 +178,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -241,7 +190,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -253,7 +202,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -265,7 +214,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -277,7 +226,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -289,7 +238,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -301,7 +250,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -313,7 +262,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -325,7 +274,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -337,10 +286,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>499</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D13"/>
     </row>
@@ -349,10 +298,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>189</v>
+        <v>525</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D14"/>
     </row>
@@ -361,10 +310,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>267</v>
+        <v>998</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D15"/>
     </row>
@@ -373,10 +322,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>279</v>
+        <v>1306</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D16"/>
     </row>
@@ -385,144 +334,12 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>303</v>
+        <v>2436</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>563</v>
-      </c>
-      <c r="C18">
-        <v>0.18667109310626984</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>564</v>
-      </c>
-      <c r="C19">
-        <v>0.18700265884399414</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>565</v>
-      </c>
-      <c r="C20">
-        <v>0.18733422458171844</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>985</v>
-      </c>
-      <c r="C21">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1124</v>
-      </c>
-      <c r="C22">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1472</v>
-      </c>
-      <c r="C23">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1798</v>
-      </c>
-      <c r="C24">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1817</v>
-      </c>
-      <c r="C25">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1859</v>
-      </c>
-      <c r="C26">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1890</v>
-      </c>
-      <c r="C27">
-        <v>0.62665784358978271</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2424</v>
-      </c>
-      <c r="C28">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D28"/>
     </row>
   </sheetData>
 </worksheet>
@@ -530,63 +347,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
